--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.018436333333334</v>
+        <v>20.66848433333334</v>
       </c>
       <c r="H2">
-        <v>21.055309</v>
+        <v>62.005453</v>
       </c>
       <c r="I2">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345127</v>
       </c>
       <c r="J2">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345126</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.734127333333333</v>
+        <v>4.609402999999999</v>
       </c>
       <c r="N2">
-        <v>5.202382</v>
+        <v>13.828209</v>
       </c>
       <c r="O2">
-        <v>0.07488702167465976</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="P2">
-        <v>0.07488702167465974</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="Q2">
-        <v>12.17086228289311</v>
+        <v>95.26937369151966</v>
       </c>
       <c r="R2">
-        <v>109.537760546038</v>
+        <v>857.424363223677</v>
       </c>
       <c r="S2">
-        <v>0.000127300716222282</v>
+        <v>0.0008547600496451959</v>
       </c>
       <c r="T2">
-        <v>0.000127300716222282</v>
+        <v>0.0008547600496451958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.018436333333334</v>
+        <v>20.66848433333334</v>
       </c>
       <c r="H3">
-        <v>21.055309</v>
+        <v>62.005453</v>
       </c>
       <c r="I3">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345127</v>
       </c>
       <c r="J3">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.110264</v>
       </c>
       <c r="O3">
-        <v>0.4910089415764484</v>
+        <v>0.428411030010331</v>
       </c>
       <c r="P3">
-        <v>0.4910089415764483</v>
+        <v>0.4284110300103309</v>
       </c>
       <c r="Q3">
-        <v>79.80023873239735</v>
+        <v>235.0024856966214</v>
       </c>
       <c r="R3">
-        <v>718.202148591576</v>
+        <v>2115.022371269592</v>
       </c>
       <c r="S3">
-        <v>0.0008346678574797321</v>
+        <v>0.002108450266411995</v>
       </c>
       <c r="T3">
-        <v>0.0008346678574797322</v>
+        <v>0.002108450266411994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.018436333333334</v>
+        <v>20.66848433333334</v>
       </c>
       <c r="H4">
-        <v>21.055309</v>
+        <v>62.005453</v>
       </c>
       <c r="I4">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345127</v>
       </c>
       <c r="J4">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.02561666666667</v>
+        <v>10.551036</v>
       </c>
       <c r="N4">
-        <v>30.07685</v>
+        <v>31.653108</v>
       </c>
       <c r="O4">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254882</v>
       </c>
       <c r="P4">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254881</v>
       </c>
       <c r="Q4">
-        <v>70.36415227740555</v>
+        <v>218.0739222664361</v>
       </c>
       <c r="R4">
-        <v>633.2773704966501</v>
+        <v>1962.665300397924</v>
       </c>
       <c r="S4">
-        <v>0.0007359714351445441</v>
+        <v>0.001956566621570787</v>
       </c>
       <c r="T4">
-        <v>0.0007359714351445442</v>
+        <v>0.001956566621570786</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.018436333333334</v>
+        <v>20.66848433333334</v>
       </c>
       <c r="H5">
-        <v>21.055309</v>
+        <v>62.005453</v>
       </c>
       <c r="I5">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345127</v>
       </c>
       <c r="J5">
-        <v>0.001699903579759509</v>
+        <v>0.004921559247345126</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02674833333333333</v>
+        <v>0.009611333333333333</v>
       </c>
       <c r="N5">
-        <v>0.080245</v>
+        <v>0.028834</v>
       </c>
       <c r="O5">
-        <v>0.001155107228627785</v>
+        <v>0.0003621433020664361</v>
       </c>
       <c r="P5">
-        <v>0.001155107228627785</v>
+        <v>0.000362143302066436</v>
       </c>
       <c r="Q5">
-        <v>0.1877314745227778</v>
+        <v>0.1986516924224445</v>
       </c>
       <c r="R5">
-        <v>1.689583270705</v>
+        <v>1.787865231802</v>
       </c>
       <c r="S5">
-        <v>1.963570912950457E-06</v>
+        <v>1.782309717149168E-06</v>
       </c>
       <c r="T5">
-        <v>1.963570912950457E-06</v>
+        <v>1.782309717149168E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>11950.198487</v>
       </c>
       <c r="I6">
-        <v>0.9648010953858698</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="J6">
-        <v>0.96480109538587</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.734127333333333</v>
+        <v>4.609402999999999</v>
       </c>
       <c r="N6">
-        <v>5.202382</v>
+        <v>13.828209</v>
       </c>
       <c r="O6">
-        <v>0.07488702167465976</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="P6">
-        <v>0.07488702167465974</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="Q6">
-        <v>6907.721945021782</v>
+        <v>18361.09358552442</v>
       </c>
       <c r="R6">
-        <v>62169.49750519604</v>
+        <v>165249.8422697198</v>
       </c>
       <c r="S6">
-        <v>0.07225108054189711</v>
+        <v>0.1647363539464515</v>
       </c>
       <c r="T6">
-        <v>0.07225108054189711</v>
+        <v>0.1647363539464515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11950.198487</v>
       </c>
       <c r="I7">
-        <v>0.9648010953858698</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="J7">
-        <v>0.96480109538587</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.110264</v>
       </c>
       <c r="O7">
-        <v>0.4910089415764484</v>
+        <v>0.428411030010331</v>
       </c>
       <c r="P7">
-        <v>0.4910089415764483</v>
+        <v>0.4284110300103309</v>
       </c>
       <c r="Q7">
         <v>45291.60280488562</v>
@@ -883,10 +883,10 @@
         <v>407624.4252439706</v>
       </c>
       <c r="S7">
-        <v>0.4737259646772139</v>
+        <v>0.4063577953956947</v>
       </c>
       <c r="T7">
-        <v>0.473725964677214</v>
+        <v>0.4063577953956946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11950.198487</v>
       </c>
       <c r="I8">
-        <v>0.9648010953858698</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="J8">
-        <v>0.96480109538587</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.02561666666667</v>
+        <v>10.551036</v>
       </c>
       <c r="N8">
-        <v>30.07685</v>
+        <v>31.653108</v>
       </c>
       <c r="O8">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254882</v>
       </c>
       <c r="P8">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254881</v>
       </c>
       <c r="Q8">
-        <v>39936.03637374732</v>
+        <v>42028.99148116085</v>
       </c>
       <c r="R8">
-        <v>359424.3273637259</v>
+        <v>378260.9233304476</v>
       </c>
       <c r="S8">
-        <v>0.4177096014472905</v>
+        <v>0.3770855360222902</v>
       </c>
       <c r="T8">
-        <v>0.4177096014472905</v>
+        <v>0.3770855360222901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>11950.198487</v>
       </c>
       <c r="I9">
-        <v>0.9648010953858698</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="J9">
-        <v>0.96480109538587</v>
+        <v>0.9485231866833483</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02674833333333333</v>
+        <v>0.009611333333333333</v>
       </c>
       <c r="N9">
-        <v>0.080245</v>
+        <v>0.028834</v>
       </c>
       <c r="O9">
-        <v>0.001155107228627785</v>
+        <v>0.0003621433020664361</v>
       </c>
       <c r="P9">
-        <v>0.001155107228627785</v>
+        <v>0.000362143302066436</v>
       </c>
       <c r="Q9">
-        <v>106.5492975099239</v>
+        <v>38.28578035268422</v>
       </c>
       <c r="R9">
-        <v>958.9436775893149</v>
+        <v>344.5720231741579</v>
       </c>
       <c r="S9">
-        <v>0.001114448719468223</v>
+        <v>0.0003435013189120864</v>
       </c>
       <c r="T9">
-        <v>0.001114448719468223</v>
+        <v>0.0003435013189120863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>137.051796</v>
+        <v>192.4566396666667</v>
       </c>
       <c r="H10">
-        <v>411.155388</v>
+        <v>577.369919</v>
       </c>
       <c r="I10">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="J10">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.734127333333333</v>
+        <v>4.609402999999999</v>
       </c>
       <c r="N10">
-        <v>5.202382</v>
+        <v>13.828209</v>
       </c>
       <c r="O10">
-        <v>0.07488702167465976</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="P10">
-        <v>0.07488702167465974</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="Q10">
-        <v>237.665265526024</v>
+        <v>887.1102122494522</v>
       </c>
       <c r="R10">
-        <v>2138.987389734216</v>
+        <v>7983.99191024507</v>
       </c>
       <c r="S10">
-        <v>0.002485851685722127</v>
+        <v>0.007959182890383571</v>
       </c>
       <c r="T10">
-        <v>0.002485851685722127</v>
+        <v>0.007959182890383571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>137.051796</v>
+        <v>192.4566396666667</v>
       </c>
       <c r="H11">
-        <v>411.155388</v>
+        <v>577.369919</v>
       </c>
       <c r="I11">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="J11">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.110264</v>
       </c>
       <c r="O11">
-        <v>0.4910089415764484</v>
+        <v>0.428411030010331</v>
       </c>
       <c r="P11">
-        <v>0.4910089415764483</v>
+        <v>0.4284110300103309</v>
       </c>
       <c r="Q11">
-        <v>1558.290981078048</v>
+        <v>2188.248929194291</v>
       </c>
       <c r="R11">
-        <v>14024.61882970243</v>
+        <v>19694.24036274862</v>
       </c>
       <c r="S11">
-        <v>0.01629889102046462</v>
+        <v>0.01963304355721459</v>
       </c>
       <c r="T11">
-        <v>0.01629889102046462</v>
+        <v>0.01963304355721458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>137.051796</v>
+        <v>192.4566396666667</v>
       </c>
       <c r="H12">
-        <v>411.155388</v>
+        <v>577.369919</v>
       </c>
       <c r="I12">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="J12">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.02561666666667</v>
+        <v>10.551036</v>
       </c>
       <c r="N12">
-        <v>30.07685</v>
+        <v>31.653108</v>
       </c>
       <c r="O12">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254882</v>
       </c>
       <c r="P12">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254881</v>
       </c>
       <c r="Q12">
-        <v>1374.0287701742</v>
+        <v>2030.616933562028</v>
       </c>
       <c r="R12">
-        <v>12366.2589315678</v>
+        <v>18275.55240205825</v>
       </c>
       <c r="S12">
-        <v>0.01437160675123656</v>
+        <v>0.01821876394991307</v>
       </c>
       <c r="T12">
-        <v>0.01437160675123656</v>
+        <v>0.01821876394991306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>137.051796</v>
+        <v>192.4566396666667</v>
       </c>
       <c r="H13">
-        <v>411.155388</v>
+        <v>577.369919</v>
       </c>
       <c r="I13">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="J13">
-        <v>0.03319469288712931</v>
+        <v>0.04582758655103054</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02674833333333333</v>
+        <v>0.009611333333333333</v>
       </c>
       <c r="N13">
-        <v>0.080245</v>
+        <v>0.028834</v>
       </c>
       <c r="O13">
-        <v>0.001155107228627785</v>
+        <v>0.0003621433020664361</v>
       </c>
       <c r="P13">
-        <v>0.001155107228627785</v>
+        <v>0.000362143302066436</v>
       </c>
       <c r="Q13">
-        <v>3.66590712334</v>
+        <v>1.849764916049556</v>
       </c>
       <c r="R13">
-        <v>32.99316411006</v>
+        <v>16.647884244446</v>
       </c>
       <c r="S13">
-        <v>3.834342970600237E-05</v>
+        <v>1.65961535193256E-05</v>
       </c>
       <c r="T13">
-        <v>3.834342970600237E-05</v>
+        <v>1.659615351932559E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.256405</v>
+        <v>3.055898333333333</v>
       </c>
       <c r="H14">
-        <v>3.769215</v>
+        <v>9.167694999999998</v>
       </c>
       <c r="I14">
-        <v>0.0003043081472413079</v>
+        <v>0.0007276675182760082</v>
       </c>
       <c r="J14">
-        <v>0.000304308147241308</v>
+        <v>0.0007276675182760081</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.734127333333333</v>
+        <v>4.609402999999999</v>
       </c>
       <c r="N14">
-        <v>5.202382</v>
+        <v>13.828209</v>
       </c>
       <c r="O14">
-        <v>0.07488702167465976</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="P14">
-        <v>0.07488702167465974</v>
+        <v>0.1736766757621145</v>
       </c>
       <c r="Q14">
-        <v>2.178766252236667</v>
+        <v>14.08586694536166</v>
       </c>
       <c r="R14">
-        <v>19.60889627013</v>
+        <v>126.772802508255</v>
       </c>
       <c r="S14">
-        <v>2.278873081823538E-05</v>
+        <v>0.0001263788756342448</v>
       </c>
       <c r="T14">
-        <v>2.278873081823538E-05</v>
+        <v>0.0001263788756342448</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.256405</v>
+        <v>3.055898333333333</v>
       </c>
       <c r="H15">
-        <v>3.769215</v>
+        <v>9.167694999999998</v>
       </c>
       <c r="I15">
-        <v>0.0003043081472413079</v>
+        <v>0.0007276675182760082</v>
       </c>
       <c r="J15">
-        <v>0.000304308147241308</v>
+        <v>0.0007276675182760081</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.110264</v>
       </c>
       <c r="O15">
-        <v>0.4910089415764484</v>
+        <v>0.428411030010331</v>
       </c>
       <c r="P15">
-        <v>0.4910089415764483</v>
+        <v>0.4284110300103309</v>
       </c>
       <c r="Q15">
-        <v>14.28543541364</v>
+        <v>34.74583296905333</v>
       </c>
       <c r="R15">
-        <v>128.56891872276</v>
+        <v>312.71249672148</v>
       </c>
       <c r="S15">
-        <v>0.0001494180212900446</v>
+        <v>0.000311740791009686</v>
       </c>
       <c r="T15">
-        <v>0.0001494180212900446</v>
+        <v>0.0003117407910096859</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.256405</v>
+        <v>3.055898333333333</v>
       </c>
       <c r="H16">
-        <v>3.769215</v>
+        <v>9.167694999999998</v>
       </c>
       <c r="I16">
-        <v>0.0003043081472413079</v>
+        <v>0.0007276675182760082</v>
       </c>
       <c r="J16">
-        <v>0.000304308147241308</v>
+        <v>0.0007276675182760081</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.02561666666667</v>
+        <v>10.551036</v>
       </c>
       <c r="N16">
-        <v>30.07685</v>
+        <v>31.653108</v>
       </c>
       <c r="O16">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254882</v>
       </c>
       <c r="P16">
-        <v>0.432948929520264</v>
+        <v>0.3975501509254881</v>
       </c>
       <c r="Q16">
-        <v>12.59623490808333</v>
+        <v>32.24289332734</v>
       </c>
       <c r="R16">
-        <v>113.36611417275</v>
+        <v>290.18603994606</v>
       </c>
       <c r="S16">
-        <v>0.0001317498865924192</v>
+        <v>0.0002892843317142026</v>
       </c>
       <c r="T16">
-        <v>0.0001317498865924192</v>
+        <v>0.0002892843317142024</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.256405</v>
+        <v>3.055898333333333</v>
       </c>
       <c r="H17">
-        <v>3.769215</v>
+        <v>9.167694999999998</v>
       </c>
       <c r="I17">
-        <v>0.0003043081472413079</v>
+        <v>0.0007276675182760082</v>
       </c>
       <c r="J17">
-        <v>0.000304308147241308</v>
+        <v>0.0007276675182760081</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02674833333333333</v>
+        <v>0.009611333333333333</v>
       </c>
       <c r="N17">
-        <v>0.080245</v>
+        <v>0.028834</v>
       </c>
       <c r="O17">
-        <v>0.001155107228627785</v>
+        <v>0.0003621433020664361</v>
       </c>
       <c r="P17">
-        <v>0.001155107228627785</v>
+        <v>0.000362143302066436</v>
       </c>
       <c r="Q17">
-        <v>0.03360673974166666</v>
+        <v>0.02937125751444444</v>
       </c>
       <c r="R17">
-        <v>0.302460657675</v>
+        <v>0.26434131763</v>
       </c>
       <c r="S17">
-        <v>3.515085406087631E-07</v>
+        <v>2.635199178749624E-07</v>
       </c>
       <c r="T17">
-        <v>3.515085406087631E-07</v>
+        <v>2.635199178749623E-07</v>
       </c>
     </row>
   </sheetData>
